--- a/TestData/TMTI0075758_75760_75767_75769_EventExpense_ApproveEventExpenseFormAsSecondLevelApprover.xlsx
+++ b/TestData/TMTI0075758_75760_75767_75769_EventExpense_ApproveEventExpenseFormAsSecondLevelApprover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C7AE13-1A8D-44EB-AC4A-C36E9BDBCB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E7A17E-7003-4857-B71B-340726425B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="14655" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpenseRequest" sheetId="1" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>10000.0</t>
   </si>
   <si>
-    <t>Bingo@1234</t>
-  </si>
-  <si>
     <t>CAPE</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>klulla@hl.com.test</t>
+  </si>
+  <si>
+    <t>Bingo@123456</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -596,7 +596,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -673,7 +673,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>17</v>
@@ -708,7 +708,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
@@ -764,7 +764,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -785,7 +785,7 @@
         <v>40</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>17</v>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,10 +891,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -913,10 +913,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -924,10 +924,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -938,11 +938,11 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2500DA39-FB92-460C-9389-FF2B67B7B4FE}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{9F97111F-A0B1-42B5-B19B-DA71F688A722}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{9611F415-59B6-42E8-B992-4BDF4D2EA082}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{5BF04A7C-90CB-40C1-BD4B-D57755647316}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{05B18534-8E7D-427F-8E6D-49330588347E}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{988EA169-E587-430F-9227-53CC8F7D0892}"/>
-    <hyperlink ref="A4" r:id="rId7" tooltip="mailto:klulla@hl.com.test" display="mailto:klulla@hl.com.test" xr:uid="{37F6AA7D-E662-440D-B4E4-A870523B1294}"/>
-    <hyperlink ref="A5" r:id="rId8" tooltip="mailto:klulla@hl.com.test" display="mailto:klulla@hl.com.test" xr:uid="{E27BE1ED-8298-4193-B17A-83CF275488FA}"/>
+    <hyperlink ref="A4" r:id="rId4" tooltip="mailto:klulla@hl.com.test" display="mailto:klulla@hl.com.test" xr:uid="{37F6AA7D-E662-440D-B4E4-A870523B1294}"/>
+    <hyperlink ref="A5" r:id="rId5" tooltip="mailto:klulla@hl.com.test" display="mailto:klulla@hl.com.test" xr:uid="{E27BE1ED-8298-4193-B17A-83CF275488FA}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{38F38A15-5B0A-4127-AAED-85AAC31E8064}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{8436A825-C06B-4179-968F-EB2AF3A77843}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{328FF362-B60B-4301-A3C3-759546B5B692}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -954,13 +954,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -976,7 +976,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -987,7 +987,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -998,7 +998,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -1009,7 +1009,7 @@
         <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -1019,8 +1019,12 @@
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{43CB4C96-EF8E-466C-A098-71C8B71DE9CE}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{F09A18C6-7321-4E0E-B9D9-D9B996CDFDA6}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{98E92ADE-69BD-431C-844E-19278F764E87}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{CA1B6722-A2DE-49FA-A2CD-81F6BF2C4350}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{B9C345D4-0330-4FF6-BE76-6AFC81FA6AC5}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{43C2C13E-7293-4ADC-B6B5-8A818FEB2FFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/TestData/TMTI0075758_75760_75767_75769_EventExpense_ApproveEventExpenseFormAsSecondLevelApprover.xlsx
+++ b/TestData/TMTI0075758_75760_75767_75769_EventExpense_ApproveEventExpenseFormAsSecondLevelApprover.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E7A17E-7003-4857-B71B-340726425B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D166E37-48FC-4FBE-B24B-36372159D222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="14655" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpenseRequest" sheetId="1" r:id="rId1"/>
@@ -878,7 +878,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
